--- a/db/datosTablas.xlsx
+++ b/db/datosTablas.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\MCIC\Materias\Programacion_Avanzada\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uriel\Documents\GitHub\Proyecto_PA_2020\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5BF45DD6-3AD7-4250-9612-D1A2E08A2B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84CB80B9-9487-4E77-8E9C-AEB44AC7200A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="3492" windowWidth="11520" windowHeight="9072" firstSheet="4" activeTab="5" xr2:uid="{3BA2B90A-A5E0-48C3-A110-4AABBF910E3D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3BA2B90A-A5E0-48C3-A110-4AABBF910E3D}"/>
   </bookViews>
   <sheets>
-    <sheet name="salones" sheetId="1" r:id="rId1"/>
+    <sheet name="salones" sheetId="12" r:id="rId1"/>
     <sheet name="nivel" sheetId="2" r:id="rId2"/>
     <sheet name="materias" sheetId="4" r:id="rId3"/>
-    <sheet name="materiasHorarios" sheetId="5" r:id="rId4"/>
+    <sheet name="grupos" sheetId="9" r:id="rId4"/>
     <sheet name="profesores" sheetId="6" r:id="rId5"/>
-    <sheet name="profesoresMaterias" sheetId="7" r:id="rId6"/>
+    <sheet name="alumnos" sheetId="8" r:id="rId6"/>
+    <sheet name="alumnosMaterias" sheetId="10" r:id="rId7"/>
+    <sheet name="asistencias" sheetId="11" r:id="rId8"/>
+    <sheet name="materiasHorarios" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="224">
   <si>
     <t>id_salon</t>
   </si>
@@ -65,12 +68,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>si</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>id_nivel</t>
   </si>
   <si>
@@ -224,15 +221,6 @@
     <t>11:30-13:00 AM</t>
   </si>
   <si>
-    <t>13:00-14:30 AM</t>
-  </si>
-  <si>
-    <t>14:30-16:00 AM</t>
-  </si>
-  <si>
-    <t>16:00-17:30 AM</t>
-  </si>
-  <si>
     <t>id_numCuentaProf</t>
   </si>
   <si>
@@ -410,13 +398,370 @@
     <t>simomaya@gmail.com</t>
   </si>
   <si>
-    <t>id_profesoresMaterias</t>
-  </si>
-  <si>
     <t>id_numCuentaProf1</t>
   </si>
   <si>
-    <t>id_materiasHorarios4</t>
+    <t>id_grupo</t>
+  </si>
+  <si>
+    <t>grado</t>
+  </si>
+  <si>
+    <t>id_numCuenta</t>
+  </si>
+  <si>
+    <t>id_grupo1</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>fechaNacAlum</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>promedio</t>
+  </si>
+  <si>
+    <t>estatus</t>
+  </si>
+  <si>
+    <t>generacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio </t>
+  </si>
+  <si>
+    <t>Samira</t>
+  </si>
+  <si>
+    <t>Antia</t>
+  </si>
+  <si>
+    <t>Placido</t>
+  </si>
+  <si>
+    <t>Lina</t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>Salome</t>
+  </si>
+  <si>
+    <t>Jacqueline</t>
+  </si>
+  <si>
+    <t>Latifa</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Matilde</t>
+  </si>
+  <si>
+    <t>Candela</t>
+  </si>
+  <si>
+    <t>Violeta</t>
+  </si>
+  <si>
+    <t>Fidel</t>
+  </si>
+  <si>
+    <t>Giovanni</t>
+  </si>
+  <si>
+    <t>Olalla</t>
+  </si>
+  <si>
+    <t>Garzon</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Serra</t>
+  </si>
+  <si>
+    <t>Salgado</t>
+  </si>
+  <si>
+    <t>Gordo</t>
+  </si>
+  <si>
+    <t>Acedo</t>
+  </si>
+  <si>
+    <t>Tovar</t>
+  </si>
+  <si>
+    <t>Ubeda</t>
+  </si>
+  <si>
+    <t>Gutierrez</t>
+  </si>
+  <si>
+    <t>Pedrosa</t>
+  </si>
+  <si>
+    <t>Ferrando</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Quintana</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Olivera</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Nestor</t>
+  </si>
+  <si>
+    <t>alumno</t>
+  </si>
+  <si>
+    <t>exalumno</t>
+  </si>
+  <si>
+    <t>Gael</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Tolsa 36
+Colonia Centro, Centro
+Cuauhtémoc
+06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Dr Jimenez 354
+Doctores
+Cuauhtémoc
+06720 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>San Lorenzo la Cebada
+16035 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Plan de Ayala
+San Lorenzo la Cebada
+Xochimilco
+16035 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Constitucion de 1917
+San Lorenzo la Cebada
+Xochimilco
+16035 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Unnamed Road, Valle Escondido, Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Huexotitla 8
+San Andrés Totoltepec
+Tlalpan
+14400 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Calle Diligencias 153
+San Pedro Mártir
+Tlalpan
+14650 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Zempoaltecas 69-15
+Tlalcoligia
+Tlalpan
+14430 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Sta Úrsula Xitla
+Tlalpan
+14420 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>San José Buenavista 27
+Sta Úrsula Xitla
+Tlalpan
+14420 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Cedral
+San Pedro Mártir
+Tlalpan
+14650 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Monte de Piedad
+04310 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Av Melchor Ocampo 260
+Santa Catarina
+Coyoacán
+04010 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Cjon. Belisario Domínguez 170-158
+Del Carmen
+Coyoacán
+04100 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Francisco Javier Mina 61
+Del Carmen
+Coyoacán
+04100 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Ignacio Aldama #74, Berlín Esquina, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Abasolo 178-172, Del Carmen, Coyoacán, 04100 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Segunda Cda. Parque 6-4
+Gral Anaya
+Benito Juárez
+03340 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+San Pedro 157
+Del Carmen
+Coyoacán
+04100 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>jgsgz@gmail.com</t>
+  </si>
+  <si>
+    <t>psdmar@gmail.com</t>
+  </si>
+  <si>
+    <t>annsier@gmail.com</t>
+  </si>
+  <si>
+    <t>samsal@gmail.com</t>
+  </si>
+  <si>
+    <t>angro@gmail.com</t>
+  </si>
+  <si>
+    <t>placve@gmail.com</t>
+  </si>
+  <si>
+    <t>linntov@gmail.com</t>
+  </si>
+  <si>
+    <t>regnu@gmail.com</t>
+  </si>
+  <si>
+    <t>Nieto</t>
+  </si>
+  <si>
+    <t>gaelme@gmail.com</t>
+  </si>
+  <si>
+    <t>salum@gmail.com</t>
+  </si>
+  <si>
+    <t>jaqugu@gmail.com</t>
+  </si>
+  <si>
+    <t>lap@gmail.com</t>
+  </si>
+  <si>
+    <t>alfer@gmail.com</t>
+  </si>
+  <si>
+    <t>matmar@gmail.com</t>
+  </si>
+  <si>
+    <t>cndegu@gmail.com</t>
+  </si>
+  <si>
+    <t>violqui@gmail.com</t>
+  </si>
+  <si>
+    <t>fidelsa@gmail.com</t>
+  </si>
+  <si>
+    <t>giovannOli@gmail.com</t>
+  </si>
+  <si>
+    <t>nesmart@gmail.com</t>
+  </si>
+  <si>
+    <t>olaGra@gmail.com</t>
+  </si>
+  <si>
+    <t>id_grupo2</t>
+  </si>
+  <si>
+    <t>id_salon1</t>
+  </si>
+  <si>
+    <t>id_alumnoMaterias</t>
+  </si>
+  <si>
+    <t>id_numCuenta1</t>
+  </si>
+  <si>
+    <t>id_materiasHorarios1</t>
+  </si>
+  <si>
+    <t>calificacion</t>
+  </si>
+  <si>
+    <t>id_asistencia</t>
+  </si>
+  <si>
+    <t>id_numCuenta2</t>
+  </si>
+  <si>
+    <t>id_materiasHorarios2</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>asistencia</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -424,7 +769,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -472,15 +817,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -795,19 +1141,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8696FB6-A39F-4138-9D19-8110EBE57F10}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AFB3E8-1FA2-40B0-9A29-B6E0C2ED18CB}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -821,7 +1164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -831,11 +1174,11 @@
       <c r="C2">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -845,210 +1188,138 @@
       <c r="C3">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>223</v>
       </c>
       <c r="C10">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>223</v>
       </c>
       <c r="C11">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>223</v>
       </c>
       <c r="C12">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
+      <c r="D12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1067,13 +1338,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1081,10 +1352,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1092,10 +1363,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1103,10 +1374,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1114,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1125,10 +1396,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1140,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65BD9EA-3D79-4857-92C2-5C598DFEB646}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1153,13 +1424,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1170,13 +1441,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1184,98 +1455,98 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1283,70 +1554,70 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
@@ -1359,213 +1630,53 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FE349A-2044-4C08-B99B-CDAD3B7629BF}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9A2CBC-1B22-4293-B8FF-40B965709CEE}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1578,7 +1689,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1591,34 +1702,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" t="s">
-        <v>95</v>
-      </c>
       <c r="H1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1629,19 +1740,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F2" s="4">
         <v>32642</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H2">
         <v>56345</v>
@@ -1650,7 +1761,7 @@
         <v>5525659589</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1661,19 +1772,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F3" s="4">
         <v>32994</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H3">
         <v>57895</v>
@@ -1682,7 +1793,7 @@
         <v>5583854514</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1693,19 +1804,19 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F4" s="4">
         <v>25684</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H4">
         <v>59445</v>
@@ -1714,7 +1825,7 @@
         <v>5642049439</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1725,19 +1836,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F5" s="4">
         <v>31368</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H5">
         <v>60995</v>
@@ -1746,7 +1857,7 @@
         <v>5700244364</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1757,19 +1868,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F6" s="4">
         <v>32424</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H6">
         <v>62545</v>
@@ -1778,7 +1889,7 @@
         <v>5758439289</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1789,19 +1900,19 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F7" s="4">
         <v>29554</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H7">
         <v>64095</v>
@@ -1810,7 +1921,7 @@
         <v>5816634214</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1821,19 +1932,19 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F8" s="4">
         <v>24999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H8">
         <v>65645</v>
@@ -1842,7 +1953,7 @@
         <v>5874829139</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1853,19 +1964,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F9" s="4">
         <v>34049</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H9">
         <v>67195</v>
@@ -1874,7 +1985,7 @@
         <v>5933024064</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1885,19 +1996,19 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F10" s="4">
         <v>27432</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H10">
         <v>68745</v>
@@ -1906,7 +2017,7 @@
         <v>5991218989</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1917,19 +2028,19 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F11" s="4">
         <v>21775</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H11">
         <v>70295</v>
@@ -1938,7 +2049,7 @@
         <v>6049413914</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1949,19 +2060,19 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
         <v>88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>93</v>
       </c>
       <c r="F12" s="4">
         <v>31536</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H12">
         <v>71845</v>
@@ -1970,7 +2081,7 @@
         <v>6107608839</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1981,19 +2092,19 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F13" s="4">
         <v>33618</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H13">
         <v>73395</v>
@@ -2002,7 +2113,7 @@
         <v>6165803764</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2025,263 +2136,5224 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8049E904-FCB2-41F5-BADF-D0F53912BCDC}">
-  <dimension ref="A1:C37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4418968-788A-443B-A486-D91705524332}">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
         <v>123</v>
       </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="6">
+        <v>39582</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2">
+        <v>86842</v>
+      </c>
+      <c r="I2">
+        <v>5524568989</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="6">
+        <v>39612</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3">
+        <v>55565</v>
+      </c>
+      <c r="I3">
+        <v>5524868982</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="6">
+        <v>39642</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4">
+        <v>58954</v>
+      </c>
+      <c r="I4">
+        <v>5525168975</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="6">
+        <v>39672</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5">
+        <v>57577</v>
+      </c>
+      <c r="I5">
+        <v>5525468968</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M5">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="6">
+        <v>39702</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6">
+        <v>54757</v>
+      </c>
+      <c r="I6">
+        <v>5525768961</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>167</v>
+      </c>
+      <c r="M6">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="6">
+        <v>39216</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7">
+        <v>45578</v>
+      </c>
+      <c r="I7">
+        <v>5526068954</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7">
+        <v>9.4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M7">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="6">
+        <v>39246</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8">
+        <v>57857</v>
+      </c>
+      <c r="I8">
+        <v>5526368947</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="K8">
+        <v>8.6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>167</v>
+      </c>
+      <c r="M8">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1007</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="6">
+        <v>39276</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9">
+        <v>45455</v>
+      </c>
+      <c r="I9">
+        <v>5526668940</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9">
+        <v>7.8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>168</v>
+      </c>
+      <c r="M9">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1008</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="6">
+        <v>39306</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10">
+        <v>49507</v>
+      </c>
+      <c r="I10">
+        <v>5526968933</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>167</v>
+      </c>
+      <c r="M10">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1009</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="6">
+        <v>39336</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11">
+        <v>49445</v>
+      </c>
+      <c r="I11">
+        <v>5527268926</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11">
+        <v>6.2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>167</v>
+      </c>
+      <c r="M11">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1010</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="6">
+        <v>38851</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12">
+        <v>49384</v>
+      </c>
+      <c r="I12">
+        <v>5527568919</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K12">
+        <v>9.4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>167</v>
+      </c>
+      <c r="M12">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1011</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="6">
+        <v>38881</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13">
+        <v>49322</v>
+      </c>
+      <c r="I13">
+        <v>5527868912</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="K13">
+        <v>8.6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1012</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="6">
+        <v>38911</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14">
+        <v>49261</v>
+      </c>
+      <c r="I14">
+        <v>5528168905</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="K14">
+        <v>7.8</v>
+      </c>
+      <c r="L14" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1013</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="6">
+        <v>38941</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15">
+        <v>57575</v>
+      </c>
+      <c r="I15">
+        <v>5528468898</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1014</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="6">
+        <v>38971</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16">
+        <v>42757</v>
+      </c>
+      <c r="I16">
+        <v>5528768891</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K16">
+        <v>6.2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1015</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="6">
+        <v>38486</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17">
+        <v>77757</v>
+      </c>
+      <c r="I17">
+        <v>5529068884</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17">
+        <v>9.4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1016</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="6">
+        <v>38516</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18">
+        <v>75757</v>
+      </c>
+      <c r="I18">
+        <v>5529368877</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K18">
+        <v>8.6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1017</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="6">
+        <v>38546</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19">
+        <v>45757</v>
+      </c>
+      <c r="I19">
+        <v>5529668870</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="K19">
+        <v>7.8</v>
+      </c>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1018</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="6">
+        <v>38576</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20">
+        <v>57577</v>
+      </c>
+      <c r="I20">
+        <v>5529968863</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1019</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="6">
+        <v>38606</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21">
+        <v>57578</v>
+      </c>
+      <c r="I21">
+        <v>5530268856</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21">
+        <v>6.2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21">
+        <v>2005</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{BEB2FD88-6E18-4295-BC3E-054C0908ADCE}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{CB1A29C4-418C-4370-A340-D19868A9C208}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{2415E939-B57C-4FED-AE37-20B2BB7F5C63}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{A53648B5-383E-413A-BF3E-CDB2AD117299}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{A03B98F7-DE36-43AB-83A6-47EB8792FA62}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{9F53AAF3-B239-456A-8553-D6DD24A772D4}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{BB739991-1412-480D-AB0C-3DB8754E3628}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{61569326-95D6-42F5-B8A4-0501EB3CD3B2}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{5399D83F-8F2D-4F9E-AE8A-18A9DEF63A48}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{2DBA677F-388E-4417-A87B-EFEEF9330B11}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{83E0E3A8-8DBB-41C2-A07D-E46E9F04E90B}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{C75261D1-8074-4479-A01B-A7E7E9177687}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{ABAB244F-6832-41C3-B584-145326DC26EA}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{2D7A65A3-4A06-4F98-AD11-AFACE3C6198E}"/>
+    <hyperlink ref="J16" r:id="rId15" xr:uid="{505E0218-2E89-44C5-8F7E-B4933A972984}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{E74418DE-8B78-4447-9593-586192D39C59}"/>
+    <hyperlink ref="J18" r:id="rId17" xr:uid="{487EFA46-35B6-4A6F-ADD1-8F9089FA752D}"/>
+    <hyperlink ref="J19" r:id="rId18" xr:uid="{9359AC1A-2F35-442F-BB5A-D7387CAFE419}"/>
+    <hyperlink ref="J20" r:id="rId19" xr:uid="{47476116-35F2-4366-8C0E-0E11F7C3F97D}"/>
+    <hyperlink ref="J21" r:id="rId20" xr:uid="{A3A33567-F1D4-45F5-BBB4-E3BC1DE171DD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB14B730-E837-48FB-B2B0-3AF6BFAB1F10}">
+  <dimension ref="A1:D81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>214</v>
+      </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="D1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1001</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>1001</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>1001</v>
+      </c>
+      <c r="C8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1001</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1002</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1002</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1002</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>1002</v>
+      </c>
+      <c r="C13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1003</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1003</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1003</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1003</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
+        <v>1004</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1004</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1004</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1005</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1005</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1005</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1005</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1006</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1006</v>
+      </c>
+      <c r="C27">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1006</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1006</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1007</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1007</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1007</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1007</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1008</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1008</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1008</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1008</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1009</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1009</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1009</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1009</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1010</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1010</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1010</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1010</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1011</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1011</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1011</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1011</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1012</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1012</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1012</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1012</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1013</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1013</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1013</v>
+      </c>
+      <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1013</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1014</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1014</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1014</v>
+      </c>
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1014</v>
+      </c>
+      <c r="C61">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1015</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1015</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1015</v>
+      </c>
+      <c r="C64">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1015</v>
+      </c>
+      <c r="C65">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1016</v>
+      </c>
+      <c r="C66">
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1016</v>
+      </c>
+      <c r="C67">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1016</v>
+      </c>
+      <c r="C68">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1016</v>
+      </c>
+      <c r="C69">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1017</v>
+      </c>
+      <c r="C70">
+        <v>13</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1017</v>
+      </c>
+      <c r="C71">
+        <v>14</v>
+      </c>
+      <c r="D71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1017</v>
+      </c>
+      <c r="C72">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1017</v>
+      </c>
+      <c r="C73">
+        <v>16</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1018</v>
+      </c>
+      <c r="C74">
+        <v>13</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1018</v>
+      </c>
+      <c r="C75">
+        <v>14</v>
+      </c>
+      <c r="D75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1018</v>
+      </c>
+      <c r="C76">
+        <v>15</v>
+      </c>
+      <c r="D76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1018</v>
+      </c>
+      <c r="C77">
+        <v>16</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1019</v>
+      </c>
+      <c r="C78">
+        <v>13</v>
+      </c>
+      <c r="D78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1019</v>
+      </c>
+      <c r="C79">
+        <v>14</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1019</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1019</v>
+      </c>
+      <c r="C81">
+        <v>16</v>
+      </c>
+      <c r="D81">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEAB846-4185-4279-BD0E-A52D4706F9A1}">
+  <dimension ref="A1:E161"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1001</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1001</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1001</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1001</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1001</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1001</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1001</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1001</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1002</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1002</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20">
+        <v>1002</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1002</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1002</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1002</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1002</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1002</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1003</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1003</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1003</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1003</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1003</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1003</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1003</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1003</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1004</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1004</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1004</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1004</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1004</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1004</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1004</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1004</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1005</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1005</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1005</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1005</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1005</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1005</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1005</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1005</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1006</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1006</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1006</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1006</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1006</v>
+      </c>
+      <c r="C54">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21">
+      <c r="D54" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1006</v>
+      </c>
+      <c r="C55">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22">
+      <c r="D55" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1006</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1006</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1007</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1007</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1007</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1007</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1007</v>
+      </c>
+      <c r="C62">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23">
+      <c r="D62" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1007</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1007</v>
+      </c>
+      <c r="C64">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24">
+      <c r="D64" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1007</v>
+      </c>
+      <c r="C65">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B25">
+      <c r="D65" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1008</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1008</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1008</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1008</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1008</v>
+      </c>
+      <c r="C70">
+        <v>7</v>
+      </c>
+      <c r="D70" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1008</v>
+      </c>
+      <c r="C71">
+        <v>7</v>
+      </c>
+      <c r="D71" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1008</v>
+      </c>
+      <c r="C72">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26">
+      <c r="D72" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1008</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1009</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1009</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1009</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1009</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1009</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1009</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+      <c r="D79" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1009</v>
+      </c>
+      <c r="C80">
+        <v>8</v>
+      </c>
+      <c r="D80" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1009</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1010</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1010</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1010</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+      <c r="D84" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>1010</v>
+      </c>
+      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="D85" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>1010</v>
+      </c>
+      <c r="C86">
+        <v>7</v>
+      </c>
+      <c r="D86" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1010</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+      <c r="D87" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1010</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1010</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>1011</v>
+      </c>
+      <c r="C90">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B27">
+      <c r="D90" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1011</v>
+      </c>
+      <c r="C91">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28">
+      <c r="D91" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>1011</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1011</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1011</v>
+      </c>
+      <c r="C94">
+        <v>11</v>
+      </c>
+      <c r="D94" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1011</v>
+      </c>
+      <c r="C95">
+        <v>11</v>
+      </c>
+      <c r="D95" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1011</v>
+      </c>
+      <c r="C96">
+        <v>12</v>
+      </c>
+      <c r="D96" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1011</v>
+      </c>
+      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="D97" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1012</v>
+      </c>
+      <c r="C98">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29">
+      <c r="D98" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1012</v>
+      </c>
+      <c r="C99">
+        <v>9</v>
+      </c>
+      <c r="D99" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1012</v>
+      </c>
+      <c r="C100">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30">
+      <c r="D100" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1012</v>
+      </c>
+      <c r="C101">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31">
+      <c r="D101" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>1012</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>1012</v>
+      </c>
+      <c r="C103">
+        <v>11</v>
+      </c>
+      <c r="D103" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>1012</v>
+      </c>
+      <c r="C104">
+        <v>12</v>
+      </c>
+      <c r="D104" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>1012</v>
+      </c>
+      <c r="C105">
+        <v>12</v>
+      </c>
+      <c r="D105" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>1013</v>
+      </c>
+      <c r="C106">
+        <v>9</v>
+      </c>
+      <c r="D106" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1013</v>
+      </c>
+      <c r="C107">
+        <v>9</v>
+      </c>
+      <c r="D107" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1013</v>
+      </c>
+      <c r="C108">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B32">
+      <c r="D108" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1013</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+      <c r="D109" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>1013</v>
+      </c>
+      <c r="C110">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33">
+      <c r="D110" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1013</v>
+      </c>
+      <c r="C111">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34">
+      <c r="D111" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>1013</v>
+      </c>
+      <c r="C112">
+        <v>12</v>
+      </c>
+      <c r="D112" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>1013</v>
+      </c>
+      <c r="C113">
+        <v>12</v>
+      </c>
+      <c r="D113" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>1014</v>
+      </c>
+      <c r="C114">
+        <v>9</v>
+      </c>
+      <c r="D114" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1014</v>
+      </c>
+      <c r="C115">
+        <v>9</v>
+      </c>
+      <c r="D115" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>1014</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+      <c r="D116" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>1014</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>1014</v>
+      </c>
+      <c r="C118">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35">
+      <c r="D118" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>1014</v>
+      </c>
+      <c r="C119">
+        <v>11</v>
+      </c>
+      <c r="D119" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>1014</v>
+      </c>
+      <c r="C120">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36">
+      <c r="D120" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>1014</v>
+      </c>
+      <c r="C121">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37">
+      <c r="D121" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>1015</v>
+      </c>
+      <c r="C122">
+        <v>9</v>
+      </c>
+      <c r="D122" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>1015</v>
+      </c>
+      <c r="C123">
+        <v>9</v>
+      </c>
+      <c r="D123" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>1015</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+      <c r="D124" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>1015</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+      <c r="D125" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>1015</v>
+      </c>
+      <c r="C126">
+        <v>11</v>
+      </c>
+      <c r="D126" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1015</v>
+      </c>
+      <c r="C127">
+        <v>11</v>
+      </c>
+      <c r="D127" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>1015</v>
+      </c>
+      <c r="C128">
         <v>12</v>
+      </c>
+      <c r="D128" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>1015</v>
+      </c>
+      <c r="C129">
+        <v>12</v>
+      </c>
+      <c r="D129" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>1016</v>
+      </c>
+      <c r="C130">
+        <v>13</v>
+      </c>
+      <c r="D130" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>1016</v>
+      </c>
+      <c r="C131">
+        <v>13</v>
+      </c>
+      <c r="D131" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>1016</v>
+      </c>
+      <c r="C132">
+        <v>14</v>
+      </c>
+      <c r="D132" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>1016</v>
+      </c>
+      <c r="C133">
+        <v>14</v>
+      </c>
+      <c r="D133" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>1016</v>
+      </c>
+      <c r="C134">
+        <v>15</v>
+      </c>
+      <c r="D134" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>1016</v>
+      </c>
+      <c r="C135">
+        <v>15</v>
+      </c>
+      <c r="D135" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>1016</v>
+      </c>
+      <c r="C136">
+        <v>16</v>
+      </c>
+      <c r="D136" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>1016</v>
+      </c>
+      <c r="C137">
+        <v>16</v>
+      </c>
+      <c r="D137" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>1017</v>
+      </c>
+      <c r="C138">
+        <v>13</v>
+      </c>
+      <c r="D138" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>1017</v>
+      </c>
+      <c r="C139">
+        <v>13</v>
+      </c>
+      <c r="D139" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>1017</v>
+      </c>
+      <c r="C140">
+        <v>14</v>
+      </c>
+      <c r="D140" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>1017</v>
+      </c>
+      <c r="C141">
+        <v>14</v>
+      </c>
+      <c r="D141" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>1017</v>
+      </c>
+      <c r="C142">
+        <v>15</v>
+      </c>
+      <c r="D142" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>1017</v>
+      </c>
+      <c r="C143">
+        <v>15</v>
+      </c>
+      <c r="D143" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>1017</v>
+      </c>
+      <c r="C144">
+        <v>16</v>
+      </c>
+      <c r="D144" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>1017</v>
+      </c>
+      <c r="C145">
+        <v>16</v>
+      </c>
+      <c r="D145" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>1018</v>
+      </c>
+      <c r="C146">
+        <v>13</v>
+      </c>
+      <c r="D146" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>1018</v>
+      </c>
+      <c r="C147">
+        <v>13</v>
+      </c>
+      <c r="D147" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1018</v>
+      </c>
+      <c r="C148">
+        <v>14</v>
+      </c>
+      <c r="D148" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>1018</v>
+      </c>
+      <c r="C149">
+        <v>14</v>
+      </c>
+      <c r="D149" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>1018</v>
+      </c>
+      <c r="C150">
+        <v>15</v>
+      </c>
+      <c r="D150" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>1018</v>
+      </c>
+      <c r="C151">
+        <v>15</v>
+      </c>
+      <c r="D151" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>1018</v>
+      </c>
+      <c r="C152">
+        <v>16</v>
+      </c>
+      <c r="D152" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>1018</v>
+      </c>
+      <c r="C153">
+        <v>16</v>
+      </c>
+      <c r="D153" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>1019</v>
+      </c>
+      <c r="C154">
+        <v>13</v>
+      </c>
+      <c r="D154" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>1019</v>
+      </c>
+      <c r="C155">
+        <v>13</v>
+      </c>
+      <c r="D155" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>1019</v>
+      </c>
+      <c r="C156">
+        <v>14</v>
+      </c>
+      <c r="D156" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>1019</v>
+      </c>
+      <c r="C157">
+        <v>14</v>
+      </c>
+      <c r="D157" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>1019</v>
+      </c>
+      <c r="C158">
+        <v>15</v>
+      </c>
+      <c r="D158" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>1019</v>
+      </c>
+      <c r="C159">
+        <v>15</v>
+      </c>
+      <c r="D159" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>1019</v>
+      </c>
+      <c r="C160">
+        <v>16</v>
+      </c>
+      <c r="D160" s="6">
+        <v>44201</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>1019</v>
+      </c>
+      <c r="C161">
+        <v>16</v>
+      </c>
+      <c r="D161" s="6">
+        <v>44202</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FE349A-2044-4C08-B99B-CDAD3B7629BF}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/db/datosTablas.xlsx
+++ b/db/datosTablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uriel\Documents\GitHub\Proyecto_PA_2020\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84CB80B9-9487-4E77-8E9C-AEB44AC7200A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B94C7B-8745-4EE7-A34A-635A0F681611}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3BA2B90A-A5E0-48C3-A110-4AABBF910E3D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{3BA2B90A-A5E0-48C3-A110-4AABBF910E3D}"/>
   </bookViews>
   <sheets>
     <sheet name="salones" sheetId="12" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="245">
   <si>
     <t>id_salon</t>
   </si>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>id_numCuentaProf</t>
-  </si>
-  <si>
-    <t>id_nivel1</t>
   </si>
   <si>
     <t>nombreProf</t>
@@ -762,6 +759,72 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>password_1</t>
+  </si>
+  <si>
+    <t>password_2</t>
+  </si>
+  <si>
+    <t>password_3</t>
+  </si>
+  <si>
+    <t>password_4</t>
+  </si>
+  <si>
+    <t>password_0</t>
+  </si>
+  <si>
+    <t>password_5</t>
+  </si>
+  <si>
+    <t>password_6</t>
+  </si>
+  <si>
+    <t>password_7</t>
+  </si>
+  <si>
+    <t>password_8</t>
+  </si>
+  <si>
+    <t>password_9</t>
+  </si>
+  <si>
+    <t>password_10</t>
+  </si>
+  <si>
+    <t>password_11</t>
+  </si>
+  <si>
+    <t>password_12</t>
+  </si>
+  <si>
+    <t>password_13</t>
+  </si>
+  <si>
+    <t>password_14</t>
+  </si>
+  <si>
+    <t>password_15</t>
+  </si>
+  <si>
+    <t>password_16</t>
+  </si>
+  <si>
+    <t>password_17</t>
+  </si>
+  <si>
+    <t>password_18</t>
+  </si>
+  <si>
+    <t>password_19</t>
+  </si>
+  <si>
+    <t>passwordProf</t>
   </si>
 </sst>
 </file>
@@ -771,7 +834,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,6 +854,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1144,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AFB3E8-1FA2-40B0-9A29-B6E0C2ED18CB}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10:D12"/>
     </sheetView>
   </sheetViews>
@@ -1281,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10">
         <v>25</v>
@@ -1295,7 +1364,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C11">
         <v>25</v>
@@ -1309,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12">
         <v>25</v>
@@ -1641,10 +1710,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
         <v>119</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1688,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96CD15D-F95E-4208-8C31-8C3F1885D763}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1705,54 +1774,54 @@
         <v>59</v>
       </c>
       <c r="B1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" t="s">
-        <v>90</v>
-      </c>
       <c r="H1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" t="s">
         <v>103</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>104</v>
-      </c>
-      <c r="J1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>228</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
         <v>86</v>
-      </c>
-      <c r="E2" t="s">
-        <v>87</v>
       </c>
       <c r="F2" s="4">
         <v>32642</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2">
         <v>56345</v>
@@ -1761,30 +1830,30 @@
         <v>5525659589</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="4">
         <v>32994</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3">
         <v>57895</v>
@@ -1793,30 +1862,30 @@
         <v>5583854514</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="4">
         <v>25684</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H4">
         <v>59445</v>
@@ -1825,30 +1894,30 @@
         <v>5642049439</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="4">
         <v>31368</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H5">
         <v>60995</v>
@@ -1857,30 +1926,30 @@
         <v>5700244364</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>227</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="4">
         <v>32424</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6">
         <v>62545</v>
@@ -1889,30 +1958,30 @@
         <v>5758439289</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="4">
         <v>29554</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H7">
         <v>64095</v>
@@ -1921,30 +1990,30 @@
         <v>5816634214</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="4">
         <v>24999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H8">
         <v>65645</v>
@@ -1953,30 +2022,30 @@
         <v>5874829139</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="4">
         <v>34049</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9">
         <v>67195</v>
@@ -1985,30 +2054,30 @@
         <v>5933024064</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="4">
         <v>27432</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H10">
         <v>68745</v>
@@ -2017,30 +2086,30 @@
         <v>5991218989</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>233</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="4">
         <v>21775</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11">
         <v>70295</v>
@@ -2049,30 +2118,30 @@
         <v>6049413914</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="4">
         <v>31536</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12">
         <v>71845</v>
@@ -2081,30 +2150,30 @@
         <v>6107608839</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>235</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="4">
         <v>33618</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13">
         <v>73395</v>
@@ -2113,10 +2182,11 @@
         <v>6165803764</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{BC915649-7FA9-41EC-B418-1FE78B73B241}"/>
     <hyperlink ref="J3" r:id="rId2" xr:uid="{459D0318-45B4-4836-852C-8928FF2CD0EB}"/>
@@ -2137,10 +2207,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4418968-788A-443B-A486-D91705524332}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2149,50 +2219,54 @@
     <col min="3" max="3" width="17.77734375" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>127</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>128</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>130</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>131</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>132</v>
       </c>
-      <c r="M1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -2200,40 +2274,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="6">
+        <v>149</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="6">
         <v>39582</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H2">
+      <c r="H2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2">
         <v>86842</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5524568989</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="K2">
+      <c r="K2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N2">
         <v>2008</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -2241,40 +2318,43 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="6">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="6">
         <v>39612</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H3">
+      <c r="H3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3">
         <v>55565</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5524868982</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="K3">
+      <c r="K3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
-        <v>167</v>
-      </c>
-      <c r="M3">
+      <c r="M3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N3">
         <v>2008</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -2282,40 +2362,43 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="6">
+        <v>151</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="6">
         <v>39642</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H4">
+      <c r="H4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4">
         <v>58954</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5525168975</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="K4">
+      <c r="K4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L4">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
-        <v>167</v>
-      </c>
-      <c r="M4">
+      <c r="M4" t="s">
+        <v>166</v>
+      </c>
+      <c r="N4">
         <v>2008</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="144" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -2323,40 +2406,43 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="6">
+        <v>152</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="6">
         <v>39672</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5">
+      <c r="H5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5">
         <v>57577</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5525468968</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="K5">
+      <c r="K5" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
-        <v>167</v>
-      </c>
-      <c r="M5">
+      <c r="M5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N5">
         <v>2008</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -2364,40 +2450,43 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="6">
+        <v>153</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="6">
         <v>39702</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H6">
+      <c r="H6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6">
         <v>54757</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5525768961</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="K6">
+      <c r="K6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L6">
         <v>0</v>
       </c>
-      <c r="L6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M6">
+      <c r="M6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N6">
         <v>2008</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -2405,40 +2494,43 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="6">
+        <v>154</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="6">
         <v>39216</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7">
+      <c r="H7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I7">
         <v>45578</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5526068954</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="K7">
+      <c r="K7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L7">
         <v>9.4</v>
       </c>
-      <c r="L7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M7">
+      <c r="M7" t="s">
+        <v>166</v>
+      </c>
+      <c r="N7">
         <v>2007</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -2446,40 +2538,43 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="6">
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="6">
         <v>39246</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H8">
+      <c r="H8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8">
         <v>57857</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5526368947</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="K8">
+      <c r="K8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8">
         <v>8.6</v>
       </c>
-      <c r="L8" t="s">
-        <v>167</v>
-      </c>
-      <c r="M8">
+      <c r="M8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N8">
         <v>2007</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="144" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -2487,40 +2582,43 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="6">
+        <v>198</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="6">
         <v>39276</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9">
+      <c r="H9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9">
         <v>45455</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>5526668940</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="K9">
+      <c r="K9" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L9">
         <v>7.8</v>
       </c>
-      <c r="L9" t="s">
-        <v>168</v>
-      </c>
-      <c r="M9">
+      <c r="M9" t="s">
+        <v>167</v>
+      </c>
+      <c r="N9">
         <v>2007</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -2528,40 +2626,43 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" t="s">
         <v>169</v>
       </c>
-      <c r="D10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="6">
         <v>39306</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10">
+      <c r="H10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10">
         <v>49507</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>5526968933</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="K10">
+      <c r="K10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L10">
         <v>7</v>
       </c>
-      <c r="L10" t="s">
-        <v>167</v>
-      </c>
-      <c r="M10">
+      <c r="M10" t="s">
+        <v>166</v>
+      </c>
+      <c r="N10">
         <v>2007</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -2569,40 +2670,43 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="6">
+        <v>156</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="6">
         <v>39336</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11">
+      <c r="H11" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11">
         <v>49445</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>5527268926</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="K11">
+      <c r="K11" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L11">
         <v>6.2</v>
       </c>
-      <c r="L11" t="s">
-        <v>167</v>
-      </c>
-      <c r="M11">
+      <c r="M11" t="s">
+        <v>166</v>
+      </c>
+      <c r="N11">
         <v>2007</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="144" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -2610,40 +2714,43 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="6">
+        <v>157</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="6">
         <v>38851</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H12">
+      <c r="H12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12">
         <v>49384</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>5527568919</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="K12">
+      <c r="K12" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12">
         <v>9.4</v>
       </c>
-      <c r="L12" t="s">
-        <v>167</v>
-      </c>
-      <c r="M12">
+      <c r="M12" t="s">
+        <v>166</v>
+      </c>
+      <c r="N12">
         <v>2006</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -2651,40 +2758,43 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="6">
+        <v>158</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="6">
         <v>38881</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13">
+      <c r="H13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13">
         <v>49322</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>5527868912</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="K13">
+      <c r="K13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13">
         <v>8.6</v>
       </c>
-      <c r="L13" t="s">
-        <v>167</v>
-      </c>
-      <c r="M13">
+      <c r="M13" t="s">
+        <v>166</v>
+      </c>
+      <c r="N13">
         <v>2006</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -2692,40 +2802,43 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>236</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="6">
+        <v>159</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="6">
         <v>38911</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14">
+      <c r="H14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I14">
         <v>49261</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>5528168905</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="K14">
+      <c r="K14" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L14">
         <v>7.8</v>
       </c>
-      <c r="L14" t="s">
-        <v>167</v>
-      </c>
-      <c r="M14">
+      <c r="M14" t="s">
+        <v>166</v>
+      </c>
+      <c r="N14">
         <v>2006</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -2733,40 +2846,43 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="6">
+        <v>160</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="6">
         <v>38941</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H15">
+      <c r="H15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I15">
         <v>57575</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>5528468898</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="K15">
+      <c r="K15" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L15">
         <v>7</v>
       </c>
-      <c r="L15" t="s">
-        <v>167</v>
-      </c>
-      <c r="M15">
+      <c r="M15" t="s">
+        <v>166</v>
+      </c>
+      <c r="N15">
         <v>2006</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="144" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -2774,40 +2890,43 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>238</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="6">
+        <v>157</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="6">
         <v>38971</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H16">
+      <c r="H16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I16">
         <v>42757</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>5528768891</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="K16">
+      <c r="K16" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L16">
         <v>6.2</v>
       </c>
-      <c r="L16" t="s">
-        <v>167</v>
-      </c>
-      <c r="M16">
+      <c r="M16" t="s">
+        <v>166</v>
+      </c>
+      <c r="N16">
         <v>2006</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -2815,40 +2934,43 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="6">
+        <v>161</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="6">
         <v>38486</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17">
+      <c r="H17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17">
         <v>77757</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>5529068884</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="K17">
+      <c r="K17" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17">
         <v>9.4</v>
       </c>
-      <c r="L17" t="s">
-        <v>167</v>
-      </c>
-      <c r="M17">
+      <c r="M17" t="s">
+        <v>166</v>
+      </c>
+      <c r="N17">
         <v>2005</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="144" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -2856,40 +2978,43 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="6">
+        <v>162</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="6">
         <v>38516</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H18">
+      <c r="H18" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18">
         <v>75757</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>5529368877</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="K18">
+      <c r="K18" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="L18">
         <v>8.6</v>
       </c>
-      <c r="L18" t="s">
-        <v>167</v>
-      </c>
-      <c r="M18">
+      <c r="M18" t="s">
+        <v>166</v>
+      </c>
+      <c r="N18">
         <v>2005</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -2897,40 +3022,43 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="6">
+        <v>163</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="6">
         <v>38546</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H19">
+      <c r="H19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19">
         <v>45757</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>5529668870</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="K19">
+      <c r="K19" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L19">
         <v>7.8</v>
       </c>
-      <c r="L19" t="s">
-        <v>167</v>
-      </c>
-      <c r="M19">
+      <c r="M19" t="s">
+        <v>166</v>
+      </c>
+      <c r="N19">
         <v>2005</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="144" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -2938,40 +3066,43 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="6">
+        <v>38576</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I20">
+        <v>57577</v>
+      </c>
+      <c r="J20">
+        <v>5529968863</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20" t="s">
         <v>166</v>
       </c>
-      <c r="D20" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="6">
-        <v>38576</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20">
-        <v>57577</v>
-      </c>
-      <c r="I20">
-        <v>5529968863</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="K20">
-        <v>7</v>
-      </c>
-      <c r="L20" t="s">
-        <v>167</v>
-      </c>
-      <c r="M20">
+      <c r="N20">
         <v>2005</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -2979,61 +3110,65 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>243</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="6">
+        <v>164</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="6">
         <v>38606</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H21">
+      <c r="H21" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21">
         <v>57578</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>5530268856</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="K21">
+      <c r="K21" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21">
         <v>6.2</v>
       </c>
-      <c r="L21" t="s">
-        <v>167</v>
-      </c>
-      <c r="M21">
+      <c r="M21" t="s">
+        <v>166</v>
+      </c>
+      <c r="N21">
         <v>2005</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{BEB2FD88-6E18-4295-BC3E-054C0908ADCE}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{CB1A29C4-418C-4370-A340-D19868A9C208}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{2415E939-B57C-4FED-AE37-20B2BB7F5C63}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{A53648B5-383E-413A-BF3E-CDB2AD117299}"/>
-    <hyperlink ref="J6" r:id="rId5" xr:uid="{A03B98F7-DE36-43AB-83A6-47EB8792FA62}"/>
-    <hyperlink ref="J7" r:id="rId6" xr:uid="{9F53AAF3-B239-456A-8553-D6DD24A772D4}"/>
-    <hyperlink ref="J8" r:id="rId7" xr:uid="{BB739991-1412-480D-AB0C-3DB8754E3628}"/>
-    <hyperlink ref="J9" r:id="rId8" xr:uid="{61569326-95D6-42F5-B8A4-0501EB3CD3B2}"/>
-    <hyperlink ref="J10" r:id="rId9" xr:uid="{5399D83F-8F2D-4F9E-AE8A-18A9DEF63A48}"/>
-    <hyperlink ref="J11" r:id="rId10" xr:uid="{2DBA677F-388E-4417-A87B-EFEEF9330B11}"/>
-    <hyperlink ref="J12" r:id="rId11" xr:uid="{83E0E3A8-8DBB-41C2-A07D-E46E9F04E90B}"/>
-    <hyperlink ref="J13" r:id="rId12" xr:uid="{C75261D1-8074-4479-A01B-A7E7E9177687}"/>
-    <hyperlink ref="J14" r:id="rId13" xr:uid="{ABAB244F-6832-41C3-B584-145326DC26EA}"/>
-    <hyperlink ref="J15" r:id="rId14" xr:uid="{2D7A65A3-4A06-4F98-AD11-AFACE3C6198E}"/>
-    <hyperlink ref="J16" r:id="rId15" xr:uid="{505E0218-2E89-44C5-8F7E-B4933A972984}"/>
-    <hyperlink ref="J17" r:id="rId16" xr:uid="{E74418DE-8B78-4447-9593-586192D39C59}"/>
-    <hyperlink ref="J18" r:id="rId17" xr:uid="{487EFA46-35B6-4A6F-ADD1-8F9089FA752D}"/>
-    <hyperlink ref="J19" r:id="rId18" xr:uid="{9359AC1A-2F35-442F-BB5A-D7387CAFE419}"/>
-    <hyperlink ref="J20" r:id="rId19" xr:uid="{47476116-35F2-4366-8C0E-0E11F7C3F97D}"/>
-    <hyperlink ref="J21" r:id="rId20" xr:uid="{A3A33567-F1D4-45F5-BBB4-E3BC1DE171DD}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{BEB2FD88-6E18-4295-BC3E-054C0908ADCE}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{CB1A29C4-418C-4370-A340-D19868A9C208}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{2415E939-B57C-4FED-AE37-20B2BB7F5C63}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{A53648B5-383E-413A-BF3E-CDB2AD117299}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{A03B98F7-DE36-43AB-83A6-47EB8792FA62}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{9F53AAF3-B239-456A-8553-D6DD24A772D4}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{BB739991-1412-480D-AB0C-3DB8754E3628}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{61569326-95D6-42F5-B8A4-0501EB3CD3B2}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{5399D83F-8F2D-4F9E-AE8A-18A9DEF63A48}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{2DBA677F-388E-4417-A87B-EFEEF9330B11}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{83E0E3A8-8DBB-41C2-A07D-E46E9F04E90B}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{C75261D1-8074-4479-A01B-A7E7E9177687}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{ABAB244F-6832-41C3-B584-145326DC26EA}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{2D7A65A3-4A06-4F98-AD11-AFACE3C6198E}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{505E0218-2E89-44C5-8F7E-B4933A972984}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{E74418DE-8B78-4447-9593-586192D39C59}"/>
+    <hyperlink ref="K18" r:id="rId17" xr:uid="{487EFA46-35B6-4A6F-ADD1-8F9089FA752D}"/>
+    <hyperlink ref="K19" r:id="rId18" xr:uid="{9359AC1A-2F35-442F-BB5A-D7387CAFE419}"/>
+    <hyperlink ref="K20" r:id="rId19" xr:uid="{47476116-35F2-4366-8C0E-0E11F7C3F97D}"/>
+    <hyperlink ref="K21" r:id="rId20" xr:uid="{A3A33567-F1D4-45F5-BBB4-E3BC1DE171DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
@@ -3057,16 +3192,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" t="s">
         <v>214</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>215</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>216</v>
-      </c>
-      <c r="D1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4210,19 +4345,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" t="s">
         <v>218</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>219</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>220</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>221</v>
-      </c>
-      <c r="E1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -6973,13 +7108,13 @@
         <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" t="s">
         <v>212</v>
-      </c>
-      <c r="E1" t="s">
-        <v>213</v>
       </c>
       <c r="F1" t="s">
         <v>20</v>
